--- a/final_result.xlsx
+++ b/final_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['KR20090053183', 'US9338200']</t>
+          <t>['KR20090053183']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['KR102474653', 'KR20210151713']</t>
+          <t>['KR20210151713']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['KR101923723', 'KR102394158']</t>
+          <t>['KR101923723']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['US20150128062', 'WO2022131602', 'KR20180054377', 'JP2010097465']</t>
+          <t>['JP2010097465', 'KR20180054377', 'US20150128062']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['KR20220146298', 'KR20130068593']</t>
+          <t>['KR20130068593']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['KR101923723', 'KR102376390']</t>
+          <t>['KR101923723']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['KR102424123', 'KR102376390']</t>
+          <t>['KR102376390']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102420840']</t>
+          <t>['KR20140036555']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['US9875580', 'US20080147424']</t>
+          <t>['US20080147424']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102441662']</t>
+          <t>['KR20140036555']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['KR20210063284', 'KR102432524']</t>
+          <t>['KR20210063284']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['US8230045', 'US20090228550']</t>
+          <t>['US20090228550']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['US9808722', 'US20090228550']</t>
+          <t>['US20090228550']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['KR102411058', 'KR102462139']</t>
+          <t>['KR102411058']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['KR20120003588', 'KR102317223']</t>
+          <t>['KR20120003588']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['KR102341866', 'KR102469274']</t>
+          <t>['KR102341866']</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['US20110113382', 'US20080147424']</t>
+          <t>['US20080147424']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['KR20210063284', 'KR20120003588', 'KR102388442']</t>
+          <t>['KR20120003588', 'KR20210063284']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102415719']</t>
+          <t>['KR20140036555']</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102445135', 'KR102343582']</t>
+          <t>['KR20140036555', 'KR102343582']</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['US8893047', 'US20080147424']</t>
+          <t>['US20080147424']</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['KR102461267', 'KR102343582']</t>
+          <t>['KR102343582']</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['WO2022225101', 'KR20120003588']</t>
+          <t>['KR20120003588']</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['US20090228550']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['KR102412142', 'KR102455172']</t>
+          <t>['KR102412142']</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['KR102412142', 'KR20130068593']</t>
+          <t>['KR20130068593']</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102445133', 'KR102343582']</t>
+          <t>['KR20140036555', 'KR102343582']</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102456160']</t>
+          <t>['KR20140036555']</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102368616']</t>
+          <t>['KR20140036555']</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['KR101923723', 'KR102402580']</t>
+          <t>['KR101923723']</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['KR101923723', 'KR102447171']</t>
+          <t>['KR101923723']</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['KR102423623', 'KR20120003588']</t>
+          <t>['KR20120003588']</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['KR20090053183', 'KR20220156352']</t>
+          <t>['KR20090053183']</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['KR20130131179', 'KR102442042']</t>
+          <t>['KR20130131179']</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['KR102440745', 'KR20110007419']</t>
+          <t>['KR20110007419']</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['KR20120003588', 'KR102445543']</t>
+          <t>['KR20120003588']</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['KR20210151713', 'KR102461333']</t>
+          <t>['KR20210151713']</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['KR100905407', 'KR102404585']</t>
+          <t>['KR100905407']</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['KR102439122', 'KR101923723', 'KR102343582']</t>
+          <t>['KR102343582', 'KR101923723']</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['KR20090053183', 'KR102476830']</t>
+          <t>['KR20090053183']</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['KR20210063284', 'KR102398366']</t>
+          <t>['KR20210063284']</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102450736', 'KR20120003588']</t>
+          <t>['KR20120003588', 'KR20140036555']</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['KR20120060597', 'KR102458225', 'KR102404585']</t>
+          <t>['KR20120060597', 'KR102404585']</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['KR101923723', 'KR102434060']</t>
+          <t>['KR101923723']</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['KR102447516', 'KR102388442', 'KR102407595']</t>
+          <t>['KR102388442', 'KR102407595']</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['US9480928', 'US20110014985', 'KR20110007419']</t>
+          <t>['KR20110007419', 'US20110014985']</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['US20110231434', 'US20110231433']</t>
+          <t>['US20110231434']</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['JP2011217352', 'JP2009217387']</t>
+          <t>['JP2009217387']</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['KR102421159', 'KR20110007419']</t>
+          <t>['KR20110007419']</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102456158']</t>
+          <t>['KR20140036555']</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102461485']</t>
+          <t>['KR20140036555']</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['KR20140036555', 'KR102388735']</t>
+          <t>['KR20140036555']</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['KR102423080', 'KR20210063284']</t>
+          <t>['KR20210063284']</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['KR102433844', 'KR20210063284']</t>
+          <t>['KR20210063284']</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>['US20180104595', 'US10981069', 'JP5159375', 'US9808722', 'US20090228550', 'US8113959', 'US8230045', 'US20070218987']</t>
+          <t>['US8230045', 'US8113959', 'US20180104595', 'US9808722', 'US20070218987', 'JP5159375', 'US20090228550']</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>['KR102445134', 'KR20140036555', 'KR102343582']</t>
+          <t>['KR20140036555', 'KR102343582']</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1581,12 +1581,428 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['KR102428990', 'KR20130068593']</t>
+          <t>['KR20130068593']</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>KR20090053183</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>KR20210151713</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>KR101923723</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>JP2010097465</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>KR20180054377</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>US20150128062</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>KR20130068593</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>KR20140036555</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>US20080147424</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>KR20210063284</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>KR102411058</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>KR20120003588</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>KR102341866</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>KR102343582</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>KR20130131179</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>KR20110007419</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>KR100905407</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>KR20120060597</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>KR102407595</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>US20110014985</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>US20110231434</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>JP2009217387</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>US8113959</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>US20180104595</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>US20070218987</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>JP5159375</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
